--- a/sample.xlsx
+++ b/sample.xlsx
@@ -20,9 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -52,9 +50,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -352,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -360,20 +357,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>43347.41072210648</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="B1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C1" t="n">
         <v>3</v>
+      </c>
+      <c r="D1">
+        <f>SUM(A1:C1)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
